--- a/COMPARAR_PRECIOS.xlsx
+++ b/COMPARAR_PRECIOS.xlsx
@@ -274,14 +274,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -289,7 +289,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -298,7 +298,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -870,9 +870,9 @@
   </sheetPr>
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N28" sqref="N28"/>
+      <selection pane="bottomLeft" activeCell="L32" sqref="L32:L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1360,13 +1360,13 @@
       <c r="B13" s="27" t="n"/>
       <c r="C13" s="27" t="n"/>
       <c r="D13" s="28" t="n"/>
-      <c r="G13" s="29" t="inlineStr">
+      <c r="G13" s="32" t="inlineStr">
         <is>
           <t>TEJIDO</t>
         </is>
       </c>
       <c r="H13" s="28" t="n"/>
-      <c r="K13" s="29" t="inlineStr">
+      <c r="K13" s="32" t="inlineStr">
         <is>
           <t>TEJIDO</t>
         </is>
@@ -1691,13 +1691,13 @@
       <c r="B22" s="27" t="n"/>
       <c r="C22" s="27" t="n"/>
       <c r="D22" s="28" t="n"/>
-      <c r="G22" s="32" t="inlineStr">
+      <c r="G22" s="29" t="inlineStr">
         <is>
           <t>PUERTA/PORTON</t>
         </is>
       </c>
       <c r="H22" s="28" t="n"/>
-      <c r="K22" s="32" t="inlineStr">
+      <c r="K22" s="29" t="inlineStr">
         <is>
           <t>PUERTA/PORTON</t>
         </is>
@@ -1945,13 +1945,13 @@
       <c r="B31" s="27" t="n"/>
       <c r="C31" s="27" t="n"/>
       <c r="D31" s="28" t="n"/>
-      <c r="G31" s="29" t="inlineStr">
+      <c r="G31" s="32" t="inlineStr">
         <is>
           <t>PUA</t>
         </is>
       </c>
       <c r="H31" s="28" t="n"/>
-      <c r="K31" s="29" t="inlineStr">
+      <c r="K31" s="32" t="inlineStr">
         <is>
           <t>PUA</t>
         </is>
@@ -2050,15 +2050,15 @@
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="G31:H31"/>
     <mergeCell ref="K31:L31"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A1:B1"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="G3:H3"/>

--- a/COMPARAR_PRECIOS.xlsx
+++ b/COMPARAR_PRECIOS.xlsx
@@ -14,7 +14,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -211,7 +211,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -289,31 +289,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,22 +442,22 @@
         </row>
         <row r="249">
           <cell r="K249">
-            <v>171551.25</v>
+            <v>157528.79999999999</v>
           </cell>
         </row>
         <row r="250">
           <cell r="K250">
-            <v>179010</v>
+            <v>160392.95999999999</v>
           </cell>
         </row>
         <row r="251">
           <cell r="K251">
-            <v>208845</v>
+            <v>189034.56</v>
           </cell>
         </row>
         <row r="252">
           <cell r="K252">
-            <v>217795.5</v>
+            <v>197627.04</v>
           </cell>
         </row>
         <row r="262">
@@ -490,22 +477,22 @@
         </row>
         <row r="304">
           <cell r="K304">
-            <v>74587.5</v>
+            <v>67307.759999999995</v>
           </cell>
         </row>
         <row r="306">
           <cell r="K306">
-            <v>89505</v>
+            <v>80196.479999999996</v>
           </cell>
         </row>
         <row r="309">
           <cell r="K309">
-            <v>93980.25</v>
+            <v>87356.88</v>
           </cell>
         </row>
         <row r="310">
           <cell r="K310">
-            <v>104422.5</v>
+            <v>97381.440000000002</v>
           </cell>
         </row>
         <row r="325">
@@ -886,25 +873,25 @@
   </sheetPr>
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14:L20"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col width="37.85546875" customWidth="1" style="7" min="1" max="1"/>
-    <col width="44.5703125" customWidth="1" style="33" min="2" max="2"/>
+    <col width="37.81640625" customWidth="1" style="7" min="1" max="1"/>
+    <col width="44.54296875" customWidth="1" style="21" min="2" max="2"/>
     <col width="18" customWidth="1" style="7" min="3" max="4"/>
     <col width="18" customWidth="1" style="3" min="5" max="6"/>
-    <col width="37.85546875" customWidth="1" style="7" min="7" max="7"/>
-    <col width="39" customWidth="1" style="33" min="8" max="8"/>
-    <col width="10.85546875" customWidth="1" style="3" min="9" max="10"/>
-    <col width="37.85546875" customWidth="1" style="7" min="11" max="11"/>
-    <col width="39.7109375" customWidth="1" style="34" min="12" max="12"/>
-    <col width="10.85546875" customWidth="1" style="14" min="13" max="13"/>
-    <col width="10.85546875" customWidth="1" style="17" min="14" max="14"/>
-    <col width="10.85546875" customWidth="1" style="3" min="15" max="27"/>
+    <col width="37.81640625" customWidth="1" style="7" min="7" max="7"/>
+    <col width="39" customWidth="1" style="21" min="8" max="8"/>
+    <col width="10.81640625" customWidth="1" style="3" min="9" max="10"/>
+    <col width="37.81640625" customWidth="1" style="7" min="11" max="11"/>
+    <col width="39.7265625" customWidth="1" style="22" min="12" max="12"/>
+    <col width="10.81640625" customWidth="1" style="14" min="13" max="13"/>
+    <col width="10.81640625" customWidth="1" style="17" min="14" max="14"/>
+    <col width="10.81640625" customWidth="1" style="3" min="15" max="27"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -945,7 +932,7 @@
           <t>PRODUCTO</t>
         </is>
       </c>
-      <c r="B2" s="35" t="inlineStr">
+      <c r="B2" s="23" t="inlineStr">
         <is>
           <t>PRECIO</t>
         </is>
@@ -955,7 +942,7 @@
           <t>PRODUCTO</t>
         </is>
       </c>
-      <c r="H2" s="33" t="inlineStr">
+      <c r="H2" s="21" t="inlineStr">
         <is>
           <t>PRECIO</t>
         </is>
@@ -965,7 +952,7 @@
           <t>PRODUCTO</t>
         </is>
       </c>
-      <c r="L2" s="34" t="inlineStr">
+      <c r="L2" s="22" t="inlineStr">
         <is>
           <t>PRECIO</t>
         </is>
@@ -981,7 +968,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row r="3" ht="27.65" customHeight="1">
       <c r="A3" s="31" t="inlineStr">
         <is>
           <t>POSTES</t>
@@ -1015,7 +1002,7 @@
           <t>REFUERZOS HORMIGON OLIMPICO C/CODO</t>
         </is>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="24">
         <f>[1]DEPOSITO!$K$330</f>
         <v/>
       </c>
@@ -1032,7 +1019,7 @@
           <t>REFUERZOS HORMIGON OLIMPICO C/CODO</t>
         </is>
       </c>
-      <c r="H4" s="33" t="n">
+      <c r="H4" s="21" t="n">
         <v>13318</v>
       </c>
       <c r="K4" s="8" t="inlineStr">
@@ -1040,8 +1027,10 @@
           <t>REFUERZOS HORMIGON OLIMPICO C/CODO</t>
         </is>
       </c>
-      <c r="L4" s="37" t="n">
-        <v>29302</v>
+      <c r="L4" s="25" t="inlineStr">
+        <is>
+          <t>Precio no encontrado</t>
+        </is>
       </c>
       <c r="M4" s="19" t="inlineStr">
         <is>
@@ -1056,7 +1045,7 @@
           <t>ESQUINEROS HORMIGON OLIMPICO C/CODO</t>
         </is>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="24">
         <f>[1]DEPOSITO!$K$136</f>
         <v/>
       </c>
@@ -1073,7 +1062,7 @@
           <t>ESQUINEROS HORMIGON OLIMPICO C/CODO</t>
         </is>
       </c>
-      <c r="H5" s="33" t="n">
+      <c r="H5" s="21" t="n">
         <v>14352</v>
       </c>
       <c r="K5" s="8" t="inlineStr">
@@ -1081,8 +1070,10 @@
           <t>ESQUINEROS HORMIGON OLIMPICO C/CODO</t>
         </is>
       </c>
-      <c r="L5" s="37" t="n">
-        <v>31106</v>
+      <c r="L5" s="25" t="inlineStr">
+        <is>
+          <t>Precio no encontrado</t>
+        </is>
       </c>
       <c r="M5" s="19" t="inlineStr">
         <is>
@@ -1096,7 +1087,7 @@
           <t>INTERMEDIOS HORMIGON OLIMPICO C/ CODO</t>
         </is>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="24">
         <f>[1]DEPOSITO!$K$279</f>
         <v/>
       </c>
@@ -1113,7 +1104,7 @@
           <t>INTERMEDIOS HORMIGON OLIMPICO C/ CODO</t>
         </is>
       </c>
-      <c r="H6" s="33" t="n">
+      <c r="H6" s="21" t="n">
         <v>9520</v>
       </c>
       <c r="K6" s="8" t="inlineStr">
@@ -1121,7 +1112,7 @@
           <t>INTERMEDIOS HORMIGON OLIMPICO C/ CODO</t>
         </is>
       </c>
-      <c r="L6" s="37" t="n">
+      <c r="L6" s="25" t="n">
         <v>22560</v>
       </c>
       <c r="M6" s="19" t="inlineStr">
@@ -1136,7 +1127,7 @@
           <t>ESQUINERO HORMIGON RECTO P 1,80/2mts</t>
         </is>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="24">
         <f>[1]DEPOSITO!$K$138</f>
         <v/>
       </c>
@@ -1153,7 +1144,7 @@
           <t>ESQUINERO HORMIGON RECTO P 1,80/2mts</t>
         </is>
       </c>
-      <c r="H7" s="33" t="n">
+      <c r="H7" s="21" t="n">
         <v>13960</v>
       </c>
       <c r="K7" s="9" t="inlineStr">
@@ -1161,8 +1152,10 @@
           <t>ESQUINERO HORMIGON RECTO P 1,80/2mts</t>
         </is>
       </c>
-      <c r="L7" s="37" t="n">
-        <v>28094</v>
+      <c r="L7" s="25" t="inlineStr">
+        <is>
+          <t>Precio no encontrado</t>
+        </is>
       </c>
       <c r="M7" s="19" t="inlineStr">
         <is>
@@ -1176,7 +1169,7 @@
           <t>INTERMEDIO HORMIGON RECTO P 1,80/2mts</t>
         </is>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="24">
         <f>[1]DEPOSITO!$K$280</f>
         <v/>
       </c>
@@ -1193,7 +1186,7 @@
           <t>INTERMEDIO HORMIGON RECTO P 1,80/2mts</t>
         </is>
       </c>
-      <c r="H8" s="33" t="n">
+      <c r="H8" s="21" t="n">
         <v>8344</v>
       </c>
       <c r="K8" s="9" t="inlineStr">
@@ -1201,8 +1194,10 @@
           <t>INTERMEDIO HORMIGON RECTO P 1,80/2mts</t>
         </is>
       </c>
-      <c r="L8" s="37" t="n">
-        <v>21409.99</v>
+      <c r="L8" s="25" t="inlineStr">
+        <is>
+          <t>Precio no encontrado</t>
+        </is>
       </c>
       <c r="M8" s="19" t="inlineStr">
         <is>
@@ -1216,7 +1211,7 @@
           <t>PUNTALES DE HORMIGON P 1,8 / 2</t>
         </is>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="24">
         <f>[1]DEPOSITO!$K$326</f>
         <v/>
       </c>
@@ -1233,7 +1228,7 @@
           <t>PUNTALES DE HORMIGON P 1,8 / 2</t>
         </is>
       </c>
-      <c r="H9" s="33" t="n">
+      <c r="H9" s="21" t="n">
         <v>5992</v>
       </c>
       <c r="K9" s="8" t="inlineStr">
@@ -1241,8 +1236,10 @@
           <t>PUNTALES DE HORMIGON P 1,8 / 2</t>
         </is>
       </c>
-      <c r="L9" s="37" t="n">
-        <v>16519</v>
+      <c r="L9" s="25" t="inlineStr">
+        <is>
+          <t>Precio no encontrado</t>
+        </is>
       </c>
       <c r="M9" s="19" t="inlineStr">
         <is>
@@ -1256,7 +1253,7 @@
           <t>ESQUINEROS HORMIGON RECTO P 1,50 M</t>
         </is>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="24">
         <f>[1]DEPOSITO!$K$137</f>
         <v/>
       </c>
@@ -1273,7 +1270,7 @@
           <t>ESQUINEROS HORMIGON RECTO P 1,50 M</t>
         </is>
       </c>
-      <c r="H10" s="33" t="n">
+      <c r="H10" s="21" t="n">
         <v>7721</v>
       </c>
       <c r="K10" s="8" t="inlineStr">
@@ -1281,7 +1278,7 @@
           <t>ESQUINEROS HORMIGON RECTO P 1,50 M</t>
         </is>
       </c>
-      <c r="L10" s="37" t="n">
+      <c r="L10" s="25" t="n">
         <v>23390</v>
       </c>
       <c r="M10" s="19" t="inlineStr">
@@ -1296,7 +1293,7 @@
           <t>INTERMEDIO HORMIGON RECTO P/ 1,50 M</t>
         </is>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="24">
         <f>[1]DEPOSITO!$K$262</f>
         <v/>
       </c>
@@ -1313,7 +1310,7 @@
           <t>INTERMEDIO HORMIGON RECTO P/ 1,50 M</t>
         </is>
       </c>
-      <c r="H11" s="33" t="n">
+      <c r="H11" s="21" t="n">
         <v>4848</v>
       </c>
       <c r="K11" s="8" t="inlineStr">
@@ -1321,8 +1318,10 @@
           <t>INTERMEDIO HORMIGON RECTO P/ 1,50 M</t>
         </is>
       </c>
-      <c r="L11" s="37" t="n">
-        <v>17559</v>
+      <c r="L11" s="25" t="inlineStr">
+        <is>
+          <t>Precio no encontrado</t>
+        </is>
       </c>
       <c r="M11" s="19" t="inlineStr">
         <is>
@@ -1336,7 +1335,7 @@
           <t xml:space="preserve">PUNTALES DE HORMIGON P/ 1,50 </t>
         </is>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="24">
         <f>[1]DEPOSITO!$K$325</f>
         <v/>
       </c>
@@ -1350,7 +1349,7 @@
           <t xml:space="preserve">PUNTALES DE HORMIGON P/ 1,50 </t>
         </is>
       </c>
-      <c r="H12" s="33" t="n">
+      <c r="H12" s="21" t="n">
         <v>4130</v>
       </c>
       <c r="K12" s="8" t="inlineStr">
@@ -1358,8 +1357,10 @@
           <t xml:space="preserve">PUNTALES DE HORMIGON P/ 1,50 </t>
         </is>
       </c>
-      <c r="L12" s="37" t="n">
-        <v>13326</v>
+      <c r="L12" s="25" t="inlineStr">
+        <is>
+          <t>Precio no encontrado</t>
+        </is>
       </c>
       <c r="M12" s="19" t="inlineStr">
         <is>
@@ -1367,7 +1368,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="29.1" customHeight="1">
+    <row r="13" ht="29.15" customHeight="1">
       <c r="A13" s="26" t="inlineStr">
         <is>
           <t>TEJIDO</t>
@@ -1376,13 +1377,13 @@
       <c r="B13" s="27" t="n"/>
       <c r="C13" s="27" t="n"/>
       <c r="D13" s="28" t="n"/>
-      <c r="G13" s="29" t="inlineStr">
+      <c r="G13" s="32" t="inlineStr">
         <is>
           <t>TEJIDO</t>
         </is>
       </c>
       <c r="H13" s="28" t="n"/>
-      <c r="K13" s="29" t="inlineStr">
+      <c r="K13" s="32" t="inlineStr">
         <is>
           <t>TEJIDO</t>
         </is>
@@ -1395,7 +1396,7 @@
           <t>TEJIDO Nº 12,5/2 PULG.(55MM) X 2 M (PUNTAS CERRADAS)</t>
         </is>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="24">
         <f>[1]DEPOSITO!$K$337*10</f>
         <v/>
       </c>
@@ -1412,7 +1413,7 @@
           <t>TEJIDO Nº 12,5/2 PULG.(55MM) X 2 M (PUNTAS CERRADAS)</t>
         </is>
       </c>
-      <c r="H14" s="33" t="n">
+      <c r="H14" s="21" t="n">
         <v>90321</v>
       </c>
       <c r="K14" s="12" t="inlineStr">
@@ -1420,8 +1421,10 @@
           <t>TEJIDO Nº 12,5/2 PULG.(55MM) X 2 M (PUNTAS CERRADAS)</t>
         </is>
       </c>
-      <c r="L14" s="37" t="n">
-        <v>160297</v>
+      <c r="L14" s="25" t="inlineStr">
+        <is>
+          <t>Precio no encontrado</t>
+        </is>
       </c>
       <c r="M14" s="19" t="inlineStr">
         <is>
@@ -1429,13 +1432,13 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="27.95" customHeight="1">
+    <row r="15" ht="28" customHeight="1">
       <c r="A15" s="11" t="inlineStr">
         <is>
           <t>TEJIDO Nº 12,5/2 PULG.(55MM) X 1,80 M (PUNTAS CERRADAS)</t>
         </is>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="24">
         <f>[1]DEPOSITO!$K$336*10</f>
         <v/>
       </c>
@@ -1452,7 +1455,7 @@
           <t>TEJIDO Nº 12,5/2 PULG.(55MM) X 1,80 M (PUNTAS CERRADAS)</t>
         </is>
       </c>
-      <c r="H15" s="33" t="n">
+      <c r="H15" s="21" t="n">
         <v>81096</v>
       </c>
       <c r="K15" s="12" t="inlineStr">
@@ -1460,8 +1463,10 @@
           <t>TEJIDO Nº 12,5/2 PULG.(55MM) X 1,80 M (PUNTAS CERRADAS)</t>
         </is>
       </c>
-      <c r="L15" s="37" t="n">
-        <v>100989</v>
+      <c r="L15" s="25" t="inlineStr">
+        <is>
+          <t>Precio no encontrado</t>
+        </is>
       </c>
       <c r="M15" s="19" t="inlineStr">
         <is>
@@ -1475,7 +1480,7 @@
           <t>TEJIDO Nº 13,5/2 PULG.(55MM) X 2 M (PUNTAS CERRADAS)</t>
         </is>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="24">
         <f>[1]DEPOSITO!$K$342*10</f>
         <v/>
       </c>
@@ -1492,7 +1497,7 @@
           <t>TEJIDO Nº 13,5/2 PULG.(55MM) X 2 M (PUNTAS CERRADAS)</t>
         </is>
       </c>
-      <c r="H16" s="33" t="n">
+      <c r="H16" s="21" t="n">
         <v>71054</v>
       </c>
       <c r="K16" s="12" t="inlineStr">
@@ -1500,7 +1505,7 @@
           <t>TEJIDO Nº 13,5/2 PULG.(55MM) X 2 M (PUNTAS CERRADAS)</t>
         </is>
       </c>
-      <c r="L16" s="37" t="n">
+      <c r="L16" s="25" t="n">
         <v>80729</v>
       </c>
       <c r="M16" s="19" t="inlineStr">
@@ -1515,7 +1520,7 @@
           <t>TEJIDO Nº 14,5/2 PULG.(55MM) X 2 M (PUNTAS CERRADAS)</t>
         </is>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="24">
         <f>[1]DEPOSITO!$K$347*10</f>
         <v/>
       </c>
@@ -1532,7 +1537,7 @@
           <t>TEJIDO Nº 14,5/2 PULG.(55MM) X 2 M (PUNTAS CERRADAS)</t>
         </is>
       </c>
-      <c r="H17" s="33" t="n">
+      <c r="H17" s="21" t="n">
         <v>59824</v>
       </c>
       <c r="K17" s="12" t="inlineStr">
@@ -1540,8 +1545,10 @@
           <t>TEJIDO Nº 14,5/2 PULG.(55MM) X 2 M (PUNTAS CERRADAS)</t>
         </is>
       </c>
-      <c r="L17" s="37" t="n">
-        <v>66255.99000000001</v>
+      <c r="L17" s="25" t="inlineStr">
+        <is>
+          <t>Precio no encontrado</t>
+        </is>
       </c>
       <c r="M17" s="19" t="inlineStr">
         <is>
@@ -1555,7 +1562,7 @@
           <t>ALAMBRE TEJIDO Nº 14,5/2,5 PULG.(68 MM) X 2 MT</t>
         </is>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="24">
         <f>[1]DEPOSITO!$K$58*10</f>
         <v/>
       </c>
@@ -1572,7 +1579,7 @@
           <t>ALAMBRE TEJIDO Nº 14,5/2,5 PULG.(68 MM) X 2 MT</t>
         </is>
       </c>
-      <c r="H18" s="33" t="n">
+      <c r="H18" s="21" t="n">
         <v>53519</v>
       </c>
       <c r="K18" s="12" t="inlineStr">
@@ -1580,7 +1587,7 @@
           <t>ALAMBRE TEJIDO Nº 14,5/2,5 PULG.(68 MM) X 2 MT</t>
         </is>
       </c>
-      <c r="L18" s="37" t="n">
+      <c r="L18" s="25" t="n">
         <v>55310</v>
       </c>
       <c r="M18" s="19" t="inlineStr">
@@ -1595,7 +1602,7 @@
           <t>ALAMBRE TEJIDO Nº 14,5/2,5 PULG.(68 MM) X 1,50 MT</t>
         </is>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="24">
         <f>[1]DEPOSITO!$K$56*10</f>
         <v/>
       </c>
@@ -1612,7 +1619,7 @@
           <t>ALAMBRE TEJIDO Nº 14,5/2,5 PULG.(68 MM) X 1,50 MT</t>
         </is>
       </c>
-      <c r="H19" s="33" t="n">
+      <c r="H19" s="21" t="n">
         <v>39202</v>
       </c>
       <c r="K19" s="12" t="inlineStr">
@@ -1620,8 +1627,10 @@
           <t>ALAMBRE TEJIDO Nº 14,5/2,5 PULG.(68 MM) X 1,50 MT</t>
         </is>
       </c>
-      <c r="L19" s="37" t="n">
-        <v>43091</v>
+      <c r="L19" s="25" t="inlineStr">
+        <is>
+          <t>Precio no encontrado</t>
+        </is>
       </c>
       <c r="M19" s="19" t="inlineStr">
         <is>
@@ -1635,7 +1644,7 @@
           <t>TEJIDO Nº 14,5/2 PULG.(55MM) X 1,50 M (PUNTAS CERRADAS)</t>
         </is>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="24">
         <f>[1]DEPOSITO!$K$345*10</f>
         <v/>
       </c>
@@ -1652,7 +1661,7 @@
           <t>TEJIDO Nº 14,5/2 PULG.(55MM) X 1,50 M (PUNTAS CERRADAS)</t>
         </is>
       </c>
-      <c r="H20" s="33" t="n">
+      <c r="H20" s="21" t="n">
         <v>43753</v>
       </c>
       <c r="K20" s="12" t="inlineStr">
@@ -1660,7 +1669,7 @@
           <t>TEJIDO Nº 14,5/2 PULG.(55MM) X 1,50 M (PUNTAS CERRADAS)</t>
         </is>
       </c>
-      <c r="L20" s="37" t="n">
+      <c r="L20" s="25" t="n">
         <v>51562</v>
       </c>
       <c r="M20" s="19" t="inlineStr">
@@ -1675,7 +1684,7 @@
           <t>TEJIDO Nº 14,5/38 mm X 1 M (PUNTAS CERRADAS)</t>
         </is>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="24">
         <f>[1]DEPOSITO!$K$348*10</f>
         <v/>
       </c>
@@ -1689,7 +1698,7 @@
           <t>TEJIDO Nº 14,5/38 mm X 1 M (PUNTAS CERRADAS)</t>
         </is>
       </c>
-      <c r="H21" s="33" t="n">
+      <c r="H21" s="21" t="n">
         <v>46681</v>
       </c>
       <c r="K21" s="12" t="inlineStr">
@@ -1698,7 +1707,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="26.45" customHeight="1">
+    <row r="22" ht="26.5" customHeight="1">
       <c r="A22" s="26" t="inlineStr">
         <is>
           <t>PUERTA/PORTON</t>
@@ -1707,13 +1716,13 @@
       <c r="B22" s="27" t="n"/>
       <c r="C22" s="27" t="n"/>
       <c r="D22" s="28" t="n"/>
-      <c r="G22" s="32" t="inlineStr">
+      <c r="G22" s="29" t="inlineStr">
         <is>
           <t>PUERTA/PORTON</t>
         </is>
       </c>
       <c r="H22" s="28" t="n"/>
-      <c r="K22" s="32" t="inlineStr">
+      <c r="K22" s="29" t="inlineStr">
         <is>
           <t>PUERTA/PORTON</t>
         </is>
@@ -1726,7 +1735,7 @@
           <t xml:space="preserve">PUERTA CAÑO RED LIVIANO 1"X1,2MM ESPESOR   0,80X1,45 </t>
         </is>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="24">
         <f>[1]DEPOSITO!$K$304</f>
         <v/>
       </c>
@@ -1740,7 +1749,7 @@
           <t xml:space="preserve">PUERTA CAÑO RED LIVIANO 1"X1,2MM ESPESOR   0,80X1,45 </t>
         </is>
       </c>
-      <c r="H23" s="33" t="n">
+      <c r="H23" s="21" t="n">
         <v>37423</v>
       </c>
       <c r="K23" s="12" t="inlineStr">
@@ -1755,7 +1764,7 @@
           <t xml:space="preserve">PUERTA CAÑO RED LIVIANO 1"X1,2MM ESPESOR   0,80X1,95 </t>
         </is>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="24">
         <f>[1]DEPOSITO!$K$306</f>
         <v/>
       </c>
@@ -1769,7 +1778,7 @@
           <t xml:space="preserve">PUERTA CAÑO RED LIVIANO 1"X1,2MM ESPESOR   0,80X1,95 </t>
         </is>
       </c>
-      <c r="H24" s="33" t="n">
+      <c r="H24" s="21" t="n">
         <v>61338</v>
       </c>
       <c r="K24" s="12" t="inlineStr">
@@ -1784,7 +1793,7 @@
           <t>PORTON CAÑO RED LIVIANO 1"X1,2MM ESPESOR   3X1,95 (2 HOJAS)</t>
         </is>
       </c>
-      <c r="B25" s="36">
+      <c r="B25" s="24">
         <f>[1]DEPOSITO!$K$250</f>
         <v/>
       </c>
@@ -1798,7 +1807,7 @@
           <t>PORTON CAÑO RED LIVIANO 1"X1,2MM ESPESOR   3X1,95 (2 HOJAS)</t>
         </is>
       </c>
-      <c r="H25" s="33" t="n">
+      <c r="H25" s="21" t="n">
         <v>161233</v>
       </c>
       <c r="K25" s="12" t="inlineStr">
@@ -1813,7 +1822,7 @@
           <t>PORTON CAÑO RED LIVIANO 1"X1,2MM ESPESOR   3X1,75 (2 HOJAS)</t>
         </is>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="24">
         <f>[1]DEPOSITO!$K$249</f>
         <v/>
       </c>
@@ -1827,7 +1836,7 @@
           <t>PORTON CAÑO RED LIVIANO 1"X1,2MM ESPESOR   3X1,75 (2 HOJAS)</t>
         </is>
       </c>
-      <c r="H26" s="33" t="n">
+      <c r="H26" s="21" t="n">
         <v>145467</v>
       </c>
       <c r="K26" s="12" t="inlineStr">
@@ -1842,7 +1851,7 @@
           <t>PUERTA CAÑO REDONDO 1,5 PULG REFORZADA 1,00X1,75 COMPLETA</t>
         </is>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="24">
         <f>[1]DEPOSITO!$K$309</f>
         <v/>
       </c>
@@ -1856,7 +1865,7 @@
           <t>PUERTA CAÑO REDONDO 1,5 PULG REFORZADA 1,00X1,75 COMPLETA</t>
         </is>
       </c>
-      <c r="H27" s="33" t="n">
+      <c r="H27" s="21" t="n">
         <v>113492</v>
       </c>
       <c r="K27" s="12" t="inlineStr">
@@ -1871,7 +1880,7 @@
           <t>PUERTA CAÑO REDONDO 1,5 PULG REFORZADA 1,00X1,95 COMPLETA</t>
         </is>
       </c>
-      <c r="B28" s="36">
+      <c r="B28" s="24">
         <f>[1]DEPOSITO!$K$310</f>
         <v/>
       </c>
@@ -1885,7 +1894,7 @@
           <t>PUERTA CAÑO REDONDO 1,5 PULG REFORZADA 1,00X1,95 COMPLETA</t>
         </is>
       </c>
-      <c r="H28" s="33" t="n">
+      <c r="H28" s="21" t="n">
         <v>124559</v>
       </c>
       <c r="K28" s="12" t="inlineStr">
@@ -1900,7 +1909,7 @@
           <t>PORTON CAÑO REDONDO 1,5 PULG REFORZADO 3X1,75 (2 HOJAS)</t>
         </is>
       </c>
-      <c r="B29" s="36">
+      <c r="B29" s="24">
         <f>[1]DEPOSITO!$K$251</f>
         <v/>
       </c>
@@ -1914,7 +1923,7 @@
           <t>PORTON CAÑO REDONDO 1,5 PULG REFORZADO 3X1,75 (2 HOJAS)</t>
         </is>
       </c>
-      <c r="H29" s="33" t="n">
+      <c r="H29" s="21" t="n">
         <v>298942</v>
       </c>
       <c r="K29" s="12" t="inlineStr">
@@ -1929,7 +1938,7 @@
           <t>PORTON CAÑO REDONDO 1,5 PULG REFORZADO 3X1,95 (2 HOJAS)</t>
         </is>
       </c>
-      <c r="B30" s="36">
+      <c r="B30" s="24">
         <f>[1]DEPOSITO!$K$252</f>
         <v/>
       </c>
@@ -1943,7 +1952,7 @@
           <t>PORTON CAÑO REDONDO 1,5 PULG REFORZADO 3X1,95 (2 HOJAS)</t>
         </is>
       </c>
-      <c r="H30" s="33" t="n">
+      <c r="H30" s="21" t="n">
         <v>301162</v>
       </c>
       <c r="K30" s="12" t="inlineStr">
@@ -1961,13 +1970,13 @@
       <c r="B31" s="27" t="n"/>
       <c r="C31" s="27" t="n"/>
       <c r="D31" s="28" t="n"/>
-      <c r="G31" s="29" t="inlineStr">
+      <c r="G31" s="32" t="inlineStr">
         <is>
           <t>PUA</t>
         </is>
       </c>
       <c r="H31" s="28" t="n"/>
-      <c r="K31" s="29" t="inlineStr">
+      <c r="K31" s="32" t="inlineStr">
         <is>
           <t>PUA</t>
         </is>
@@ -1980,7 +1989,7 @@
           <t>ALAMBRE DE PUA  ROLLO  X 100 METROS</t>
         </is>
       </c>
-      <c r="B32" s="36">
+      <c r="B32" s="24">
         <f>[1]DEPOSITO!$K$9</f>
         <v/>
       </c>
@@ -1999,7 +2008,7 @@
           <t>ALAMBRE DE PUA  ROLLO  X 100 METROS</t>
         </is>
       </c>
-      <c r="H32" s="33" t="n">
+      <c r="H32" s="21" t="n">
         <v>20581</v>
       </c>
       <c r="K32" s="11" t="inlineStr">
@@ -2007,8 +2016,10 @@
           <t>ALAMBRE DE PUA  ROLLO  X 100 METROS</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>16354</v>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Precio no encontrado</t>
+        </is>
       </c>
       <c r="M32" s="19" t="inlineStr">
         <is>
@@ -2022,7 +2033,7 @@
           <t xml:space="preserve">ALAMBRE DE PUA  ROLLO  X 500 mts IMPORTADO </t>
         </is>
       </c>
-      <c r="B33" s="36">
+      <c r="B33" s="24">
         <f>[1]DEPOSITO!$K$12</f>
         <v/>
       </c>
@@ -2039,7 +2050,7 @@
           <t xml:space="preserve">ALAMBRE DE PUA  ROLLO  X 500 mts IMPORTADO </t>
         </is>
       </c>
-      <c r="H33" s="33" t="n">
+      <c r="H33" s="21" t="n">
         <v>98792</v>
       </c>
       <c r="K33" s="12" t="inlineStr">
@@ -2126,7 +2137,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2144,7 +2155,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/COMPARAR_PRECIOS.xlsx
+++ b/COMPARAR_PRECIOS.xlsx
@@ -1027,10 +1027,8 @@
           <t>REFUERZOS HORMIGON OLIMPICO C/CODO</t>
         </is>
       </c>
-      <c r="L4" s="25" t="inlineStr">
-        <is>
-          <t>Precio no encontrado</t>
-        </is>
+      <c r="L4" s="25" t="n">
+        <v>29302</v>
       </c>
       <c r="M4" s="19" t="inlineStr">
         <is>
@@ -1070,10 +1068,8 @@
           <t>ESQUINEROS HORMIGON OLIMPICO C/CODO</t>
         </is>
       </c>
-      <c r="L5" s="25" t="inlineStr">
-        <is>
-          <t>Precio no encontrado</t>
-        </is>
+      <c r="L5" s="25" t="n">
+        <v>31106</v>
       </c>
       <c r="M5" s="19" t="inlineStr">
         <is>
@@ -1152,10 +1148,8 @@
           <t>ESQUINERO HORMIGON RECTO P 1,80/2mts</t>
         </is>
       </c>
-      <c r="L7" s="25" t="inlineStr">
-        <is>
-          <t>Precio no encontrado</t>
-        </is>
+      <c r="L7" s="25" t="n">
+        <v>28094</v>
       </c>
       <c r="M7" s="19" t="inlineStr">
         <is>
@@ -1194,10 +1188,8 @@
           <t>INTERMEDIO HORMIGON RECTO P 1,80/2mts</t>
         </is>
       </c>
-      <c r="L8" s="25" t="inlineStr">
-        <is>
-          <t>Precio no encontrado</t>
-        </is>
+      <c r="L8" s="25" t="n">
+        <v>21409.99</v>
       </c>
       <c r="M8" s="19" t="inlineStr">
         <is>
@@ -1236,10 +1228,8 @@
           <t>PUNTALES DE HORMIGON P 1,8 / 2</t>
         </is>
       </c>
-      <c r="L9" s="25" t="inlineStr">
-        <is>
-          <t>Precio no encontrado</t>
-        </is>
+      <c r="L9" s="25" t="n">
+        <v>16519</v>
       </c>
       <c r="M9" s="19" t="inlineStr">
         <is>
@@ -1318,10 +1308,8 @@
           <t>INTERMEDIO HORMIGON RECTO P/ 1,50 M</t>
         </is>
       </c>
-      <c r="L11" s="25" t="inlineStr">
-        <is>
-          <t>Precio no encontrado</t>
-        </is>
+      <c r="L11" s="25" t="n">
+        <v>17559</v>
       </c>
       <c r="M11" s="19" t="inlineStr">
         <is>
@@ -1357,10 +1345,8 @@
           <t xml:space="preserve">PUNTALES DE HORMIGON P/ 1,50 </t>
         </is>
       </c>
-      <c r="L12" s="25" t="inlineStr">
-        <is>
-          <t>Precio no encontrado</t>
-        </is>
+      <c r="L12" s="25" t="n">
+        <v>13326</v>
       </c>
       <c r="M12" s="19" t="inlineStr">
         <is>
@@ -1421,10 +1407,8 @@
           <t>TEJIDO Nº 12,5/2 PULG.(55MM) X 2 M (PUNTAS CERRADAS)</t>
         </is>
       </c>
-      <c r="L14" s="25" t="inlineStr">
-        <is>
-          <t>Precio no encontrado</t>
-        </is>
+      <c r="L14" s="25" t="n">
+        <v>160297</v>
       </c>
       <c r="M14" s="19" t="inlineStr">
         <is>
@@ -1463,10 +1447,8 @@
           <t>TEJIDO Nº 12,5/2 PULG.(55MM) X 1,80 M (PUNTAS CERRADAS)</t>
         </is>
       </c>
-      <c r="L15" s="25" t="inlineStr">
-        <is>
-          <t>Precio no encontrado</t>
-        </is>
+      <c r="L15" s="25" t="n">
+        <v>100989</v>
       </c>
       <c r="M15" s="19" t="inlineStr">
         <is>
@@ -1545,10 +1527,8 @@
           <t>TEJIDO Nº 14,5/2 PULG.(55MM) X 2 M (PUNTAS CERRADAS)</t>
         </is>
       </c>
-      <c r="L17" s="25" t="inlineStr">
-        <is>
-          <t>Precio no encontrado</t>
-        </is>
+      <c r="L17" s="25" t="n">
+        <v>66255.99000000001</v>
       </c>
       <c r="M17" s="19" t="inlineStr">
         <is>
@@ -1627,10 +1607,8 @@
           <t>ALAMBRE TEJIDO Nº 14,5/2,5 PULG.(68 MM) X 1,50 MT</t>
         </is>
       </c>
-      <c r="L19" s="25" t="inlineStr">
-        <is>
-          <t>Precio no encontrado</t>
-        </is>
+      <c r="L19" s="25" t="n">
+        <v>43091</v>
       </c>
       <c r="M19" s="19" t="inlineStr">
         <is>
@@ -2016,10 +1994,8 @@
           <t>ALAMBRE DE PUA  ROLLO  X 100 METROS</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Precio no encontrado</t>
-        </is>
+      <c r="L32" t="n">
+        <v>16354</v>
       </c>
       <c r="M32" s="19" t="inlineStr">
         <is>
@@ -2078,10 +2054,10 @@
   <mergeCells count="15">
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A22:D22"/>
-    <mergeCell ref="G13:H13"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A13:D13"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="G22:H22"/>
@@ -2089,7 +2065,7 @@
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="G13:H13"/>
     <mergeCell ref="K3:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:D12 C14:D21 C23:D30 C32:D33">
